--- a/public/pages/zjgs_autozcmx/templates/zcmx_template.xlsx
+++ b/public/pages/zjgs_autozcmx/templates/zcmx_template.xlsx
@@ -103,9 +103,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
@@ -195,15 +194,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -215,6 +211,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -533,12 +533,15 @@
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="9" style="7"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="6" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="5" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,44 +566,45 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>